--- a/Bessel beam information.xlsx
+++ b/Bessel beam information.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86188\Desktop\Response_MTT\Response_MTT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Airy TMTT\major revision\Response_MTT\Response_MTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA8F31F-83A5-48FC-9040-64C50DD15C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B850EB24-1046-4E3D-9485-DCF1DF69ACD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Height information" sheetId="1" r:id="rId1"/>
-    <sheet name="Total phase" sheetId="2" r:id="rId2"/>
+    <sheet name="Height information (mm)" sheetId="1" r:id="rId1"/>
+    <sheet name="Total phase (rad)" sheetId="2" r:id="rId2"/>
     <sheet name="Solution of Z" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -381,12 +381,12 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.9296875" customWidth="1"/>
+    <col min="1" max="1" width="10.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:72" s="1" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -604,7 +604,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-175</v>
       </c>
@@ -822,7 +822,7 @@
         <v>4.1600754683660499</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-170</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>3.5058318014302801</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-165</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>2.8637260984269699</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-160</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>2.2341521432171598</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-155</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>10.5785275224118</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>-150</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>9.9752341160650104</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>-145</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>9.3857062936885693</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-140</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>8.8103712319459095</v>
       </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-135</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>8.2496630312881898</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>-130</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>7.7040219527789704</v>
       </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>-125</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>7.1738935490299403</v>
       </c>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>-120</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>6.6597276850156204</v>
       </c>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>-115</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>6.1619774454501099</v>
       </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>-110</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>5.6810979265287402</v>
       </c>
     </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>-105</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>5.2175449111721903</v>
       </c>
     </row>
-    <row r="17" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>-100</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>4.7717734284603104</v>
       </c>
     </row>
-    <row r="18" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>-95</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>4.3442361997060202</v>
       </c>
     </row>
-    <row r="19" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>-90</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>3.9353819755828798</v>
       </c>
     </row>
-    <row r="20" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>-85</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>3.5456537708632401</v>
       </c>
     </row>
-    <row r="21" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>-80</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>3.1754870056162701</v>
       </c>
     </row>
-    <row r="22" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>-75</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>2.82530756411529</v>
       </c>
     </row>
-    <row r="23" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>-70</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>2.4955297851603602</v>
       </c>
     </row>
-    <row r="24" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-65</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>2.1865543999724699</v>
       </c>
     </row>
-    <row r="25" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>-60</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>10.859781215064601</v>
       </c>
     </row>
-    <row r="26" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>-55</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>10.593547887578699</v>
       </c>
     </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>-50</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>10.3492164989541</v>
       </c>
     </row>
-    <row r="28" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>-45</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>10.1271123737792</v>
       </c>
     </row>
-    <row r="29" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>-40</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>9.9275368525843408</v>
       </c>
     </row>
-    <row r="30" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>-35</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>9.75076537169336</v>
       </c>
     </row>
-    <row r="31" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>-30</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>9.5970456555838304</v>
       </c>
     </row>
-    <row r="32" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>-25</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>9.4665960479286593</v>
       </c>
     </row>
-    <row r="33" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>-20</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>9.3596040064498904</v>
       </c>
     </row>
-    <row r="34" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>-15</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>9.2762247850267201</v>
       </c>
     </row>
-    <row r="35" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>-10</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>9.2165803241759701</v>
       </c>
     </row>
-    <row r="36" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>-5</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>9.1807583681060692</v>
       </c>
     </row>
-    <row r="37" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>9.1688118231009597</v>
       </c>
     </row>
-    <row r="38" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>9.1807583681060692</v>
       </c>
     </row>
-    <row r="39" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>10</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>9.2165803241759701</v>
       </c>
     </row>
-    <row r="40" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>15</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>9.2762247850267201</v>
       </c>
     </row>
-    <row r="41" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>20</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>9.3596040064498904</v>
       </c>
     </row>
-    <row r="42" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>25</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>9.4665960479286593</v>
       </c>
     </row>
-    <row r="43" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>30</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>9.5970456555838304</v>
       </c>
     </row>
-    <row r="44" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>35</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>9.75076537169336</v>
       </c>
     </row>
-    <row r="45" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>40</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>9.9275368525843408</v>
       </c>
     </row>
-    <row r="46" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>10.1271123737792</v>
       </c>
     </row>
-    <row r="47" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>50</v>
       </c>
@@ -10632,7 +10632,7 @@
         <v>10.3492164989541</v>
       </c>
     </row>
-    <row r="48" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>55</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>10.593547887578699</v>
       </c>
     </row>
-    <row r="49" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>60</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>10.859781215064601</v>
       </c>
     </row>
-    <row r="50" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>65</v>
       </c>
@@ -11286,7 +11286,7 @@
         <v>2.1865543999724699</v>
       </c>
     </row>
-    <row r="51" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>70</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>2.4955297851603602</v>
       </c>
     </row>
-    <row r="52" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>75</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>2.82530756411529</v>
       </c>
     </row>
-    <row r="53" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>80</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>3.1754870056162701</v>
       </c>
     </row>
-    <row r="54" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>85</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>3.5456537708632401</v>
       </c>
     </row>
-    <row r="55" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>90</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>3.9353819755828798</v>
       </c>
     </row>
-    <row r="56" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>95</v>
       </c>
@@ -12594,7 +12594,7 @@
         <v>4.3442361997060202</v>
       </c>
     </row>
-    <row r="57" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>100</v>
       </c>
@@ -12812,7 +12812,7 @@
         <v>4.7717734284603104</v>
       </c>
     </row>
-    <row r="58" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>105</v>
       </c>
@@ -13030,7 +13030,7 @@
         <v>5.2175449111721903</v>
       </c>
     </row>
-    <row r="59" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>110</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>5.6810979265287402</v>
       </c>
     </row>
-    <row r="60" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>115</v>
       </c>
@@ -13466,7 +13466,7 @@
         <v>6.1619774454501099</v>
       </c>
     </row>
-    <row r="61" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>120</v>
       </c>
@@ -13684,7 +13684,7 @@
         <v>6.6597276850156204</v>
       </c>
     </row>
-    <row r="62" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>125</v>
       </c>
@@ -13902,7 +13902,7 @@
         <v>7.1738935490299403</v>
       </c>
     </row>
-    <row r="63" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>130</v>
       </c>
@@ -14120,7 +14120,7 @@
         <v>7.7040219527789704</v>
       </c>
     </row>
-    <row r="64" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>135</v>
       </c>
@@ -14338,7 +14338,7 @@
         <v>8.2496630312881898</v>
       </c>
     </row>
-    <row r="65" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>140</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>8.8103712319459095</v>
       </c>
     </row>
-    <row r="66" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>145</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>9.3857062936885693</v>
       </c>
     </row>
-    <row r="67" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>150</v>
       </c>
@@ -14992,7 +14992,7 @@
         <v>9.9752341160650104</v>
       </c>
     </row>
-    <row r="68" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>155</v>
       </c>
@@ -15210,7 +15210,7 @@
         <v>10.5785275224118</v>
       </c>
     </row>
-    <row r="69" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>160</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>2.2341521432171598</v>
       </c>
     </row>
-    <row r="70" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>165</v>
       </c>
@@ -15646,7 +15646,7 @@
         <v>2.8637260984269699</v>
       </c>
     </row>
-    <row r="71" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>170</v>
       </c>
@@ -15864,7 +15864,7 @@
         <v>3.5058318014302801</v>
       </c>
     </row>
-    <row r="72" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>175</v>
       </c>
@@ -16097,12 +16097,12 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.9296875" customWidth="1"/>
+    <col min="1" max="1" width="10.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:72" s="1" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -16320,7 +16320,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-175</v>
       </c>
@@ -16538,7 +16538,7 @@
         <v>4.7686074630239998</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-170</v>
       </c>
@@ -16756,7 +16756,7 @@
         <v>5.2273428068263996</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-165</v>
       </c>
@@ -16974,7 +16974,7 @@
         <v>5.6775673872251602</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-160</v>
       </c>
@@ -17192,7 +17192,7 @@
         <v>6.1190050952046198</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-155</v>
       </c>
@@ -17410,7 +17410,7 @@
         <v>0.26818818730948801</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>-150</v>
       </c>
@@ -17628,7 +17628,7 @@
         <v>0.69119879048495303</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>-145</v>
       </c>
@@ -17846,7 +17846,7 @@
         <v>1.1045573936267501</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-140</v>
       </c>
@@ -18064,7 +18064,7 @@
         <v>1.5079644737230999</v>
       </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-135</v>
       </c>
@@ -18282,7 +18282,7 @@
         <v>1.9011156530172699</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>-130</v>
       </c>
@@ -18500,7 +18500,7 @@
         <v>2.2837022341224</v>
       </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>-125</v>
       </c>
@@ -18718,7 +18718,7 @@
         <v>2.6554118093823802</v>
       </c>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>-120</v>
       </c>
@@ -18936,7 +18936,7 @@
         <v>3.0159289474461999</v>
       </c>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>-115</v>
       </c>
@@ -19154,7 +19154,7 @@
         <v>3.3649359593814498</v>
       </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>-110</v>
       </c>
@@ -19372,7 +19372,7 @@
         <v>3.7021137458675102</v>
       </c>
     </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>-105</v>
       </c>
@@ -19590,7 +19590,7 @@
         <v>4.0271427260732899</v>
       </c>
     </row>
-    <row r="17" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>-100</v>
       </c>
@@ -19808,7 +19808,7 @@
         <v>4.3397038477374803</v>
       </c>
     </row>
-    <row r="18" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>-95</v>
       </c>
@@ -20026,7 +20026,7 @@
         <v>4.6394796767332798</v>
       </c>
     </row>
-    <row r="19" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>-90</v>
       </c>
@@ -20244,7 +20244,7 @@
         <v>4.9261555630229097</v>
       </c>
     </row>
-    <row r="20" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>-85</v>
       </c>
@@ -20462,7 +20462,7 @@
         <v>5.1994208784044202</v>
       </c>
     </row>
-    <row r="21" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>-80</v>
       </c>
@@ -20680,7 +20680,7 @@
         <v>5.4589703198458697</v>
       </c>
     </row>
-    <row r="22" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>-75</v>
       </c>
@@ -20898,7 +20898,7 @@
         <v>5.7045052705193102</v>
       </c>
     </row>
-    <row r="23" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>-70</v>
       </c>
@@ -21116,7 +21116,7 @@
         <v>5.9357352089240996</v>
       </c>
     </row>
-    <row r="24" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-65</v>
       </c>
@@ -21334,7 +21334,7 @@
         <v>6.1523791547715101</v>
       </c>
     </row>
-    <row r="25" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>-60</v>
       </c>
@@ -21552,7 +21552,7 @@
         <v>7.0981831458849398E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>-55</v>
       </c>
@@ -21770,7 +21770,7 @@
         <v>0.25765637366410499</v>
       </c>
     </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>-50</v>
       </c>
@@ -21988,7 +21988,7 @@
         <v>0.428973956434685</v>
       </c>
     </row>
-    <row r="28" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>-45</v>
       </c>
@@ -22206,7 +22206,7 @@
         <v>0.58470647227124395</v>
       </c>
     </row>
-    <row r="29" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>-40</v>
       </c>
@@ -22424,7 +22424,7 @@
         <v>0.72464263055102196</v>
       </c>
     </row>
-    <row r="30" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>-35</v>
       </c>
@@ -22642,7 +22642,7 @@
         <v>0.84858930387655296</v>
       </c>
     </row>
-    <row r="31" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>-30</v>
       </c>
@@ -22860,7 +22860,7 @@
         <v>0.95637279553644805</v>
       </c>
     </row>
-    <row r="32" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>-25</v>
       </c>
@@ -23078,7 +23078,7 @@
         <v>1.04784000972724</v>
       </c>
     </row>
-    <row r="33" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>-20</v>
       </c>
@@ -23296,7 +23296,7 @@
         <v>1.1228595069151299</v>
       </c>
     </row>
-    <row r="34" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>-15</v>
       </c>
@@ -23514,7 +23514,7 @@
         <v>1.18132242790094</v>
       </c>
     </row>
-    <row r="35" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>-10</v>
       </c>
@@ -23732,7 +23732,7 @@
         <v>1.22314327178075</v>
       </c>
     </row>
-    <row r="36" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>-5</v>
       </c>
@@ -23950,7 +23950,7 @@
         <v>1.2482605150402299</v>
       </c>
     </row>
-    <row r="37" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
@@ -24168,7 +24168,7 @@
         <v>1.2566370614359199</v>
       </c>
     </row>
-    <row r="38" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -24386,7 +24386,7 @@
         <v>1.2482605150402299</v>
       </c>
     </row>
-    <row r="39" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>10</v>
       </c>
@@ -24604,7 +24604,7 @@
         <v>1.22314327178075</v>
       </c>
     </row>
-    <row r="40" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>15</v>
       </c>
@@ -24822,7 +24822,7 @@
         <v>1.18132242790094</v>
       </c>
     </row>
-    <row r="41" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>20</v>
       </c>
@@ -25040,7 +25040,7 @@
         <v>1.1228595069151299</v>
       </c>
     </row>
-    <row r="42" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>25</v>
       </c>
@@ -25258,7 +25258,7 @@
         <v>1.04784000972724</v>
       </c>
     </row>
-    <row r="43" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>30</v>
       </c>
@@ -25476,7 +25476,7 @@
         <v>0.95637279553644805</v>
       </c>
     </row>
-    <row r="44" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>35</v>
       </c>
@@ -25694,7 +25694,7 @@
         <v>0.84858930387655296</v>
       </c>
     </row>
-    <row r="45" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>40</v>
       </c>
@@ -25912,7 +25912,7 @@
         <v>0.72464263055102196</v>
       </c>
     </row>
-    <row r="46" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -26130,7 +26130,7 @@
         <v>0.58470647227124395</v>
       </c>
     </row>
-    <row r="47" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>50</v>
       </c>
@@ -26348,7 +26348,7 @@
         <v>0.428973956434685</v>
       </c>
     </row>
-    <row r="48" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>55</v>
       </c>
@@ -26566,7 +26566,7 @@
         <v>0.25765637366410499</v>
       </c>
     </row>
-    <row r="49" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>60</v>
       </c>
@@ -26784,7 +26784,7 @@
         <v>7.0981831458849398E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>65</v>
       </c>
@@ -27002,7 +27002,7 @@
         <v>6.1523791547715101</v>
       </c>
     </row>
-    <row r="51" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>70</v>
       </c>
@@ -27220,7 +27220,7 @@
         <v>5.9357352089240996</v>
       </c>
     </row>
-    <row r="52" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>75</v>
       </c>
@@ -27438,7 +27438,7 @@
         <v>5.7045052705193102</v>
       </c>
     </row>
-    <row r="53" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>80</v>
       </c>
@@ -27656,7 +27656,7 @@
         <v>5.4589703198458697</v>
       </c>
     </row>
-    <row r="54" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>85</v>
       </c>
@@ -27874,7 +27874,7 @@
         <v>5.1994208784044202</v>
       </c>
     </row>
-    <row r="55" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>90</v>
       </c>
@@ -28092,7 +28092,7 @@
         <v>4.9261555630229097</v>
       </c>
     </row>
-    <row r="56" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>95</v>
       </c>
@@ -28310,7 +28310,7 @@
         <v>4.6394796767332798</v>
       </c>
     </row>
-    <row r="57" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>100</v>
       </c>
@@ -28528,7 +28528,7 @@
         <v>4.3397038477374803</v>
       </c>
     </row>
-    <row r="58" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>105</v>
       </c>
@@ -28746,7 +28746,7 @@
         <v>4.0271427260732899</v>
       </c>
     </row>
-    <row r="59" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>110</v>
       </c>
@@ -28964,7 +28964,7 @@
         <v>3.7021137458675102</v>
       </c>
     </row>
-    <row r="60" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>115</v>
       </c>
@@ -29182,7 +29182,7 @@
         <v>3.3649359593814498</v>
       </c>
     </row>
-    <row r="61" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>120</v>
       </c>
@@ -29400,7 +29400,7 @@
         <v>3.0159289474461999</v>
       </c>
     </row>
-    <row r="62" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>125</v>
       </c>
@@ -29618,7 +29618,7 @@
         <v>2.6554118093823802</v>
       </c>
     </row>
-    <row r="63" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>130</v>
       </c>
@@ -29836,7 +29836,7 @@
         <v>2.2837022341224</v>
       </c>
     </row>
-    <row r="64" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>135</v>
       </c>
@@ -30054,7 +30054,7 @@
         <v>1.9011156530172699</v>
       </c>
     </row>
-    <row r="65" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>140</v>
       </c>
@@ -30272,7 +30272,7 @@
         <v>1.5079644737230999</v>
       </c>
     </row>
-    <row r="66" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>145</v>
       </c>
@@ -30490,7 +30490,7 @@
         <v>1.1045573936267501</v>
       </c>
     </row>
-    <row r="67" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>150</v>
       </c>
@@ -30708,7 +30708,7 @@
         <v>0.69119879048495303</v>
       </c>
     </row>
-    <row r="68" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>155</v>
       </c>
@@ -30926,7 +30926,7 @@
         <v>0.26818818730948801</v>
       </c>
     </row>
-    <row r="69" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>160</v>
       </c>
@@ -31144,7 +31144,7 @@
         <v>6.1190050952046198</v>
       </c>
     </row>
-    <row r="70" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>165</v>
       </c>
@@ -31362,7 +31362,7 @@
         <v>5.6775673872251602</v>
       </c>
     </row>
-    <row r="71" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>170</v>
       </c>
@@ -31580,7 +31580,7 @@
         <v>5.2273428068263996</v>
       </c>
     </row>
-    <row r="72" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>175</v>
       </c>
@@ -31810,15 +31810,15 @@
   <dimension ref="A1:BT72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.9296875" customWidth="1"/>
+    <col min="1" max="1" width="10.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:72" s="1" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -32036,7 +32036,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-175</v>
       </c>
@@ -32254,7 +32254,7 @@
         <v>57.008771254956898</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-170</v>
       </c>
@@ -32472,7 +32472,7 @@
         <v>56.400354608814297</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-165</v>
       </c>
@@ -32690,7 +32690,7 @@
         <v>55.8032257132148</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-160</v>
       </c>
@@ -32908,7 +32908,7 @@
         <v>55.217750769114097</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-155</v>
       </c>
@@ -33126,7 +33126,7 @@
         <v>54.644304369257</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>-150</v>
       </c>
@@ -33344,7 +33344,7 @@
         <v>54.083269131959803</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>-145</v>
       </c>
@@ -33562,7 +33562,7 @@
         <v>53.535035257296698</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-140</v>
       </c>
@@ -33780,7 +33780,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-135</v>
       </c>
@@ -33998,7 +33998,7 @@
         <v>52.478567053607698</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>-130</v>
       </c>
@@ -34216,7 +34216,7 @@
         <v>51.971145840745102</v>
       </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>-125</v>
       </c>
@@ -34434,7 +34434,7 @@
         <v>51.478150704934997</v>
       </c>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>-120</v>
       </c>
@@ -34652,7 +34652,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>-115</v>
       </c>
@@ -34870,7 +34870,7 @@
         <v>50.537115073973098</v>
       </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>-110</v>
       </c>
@@ -35088,7 +35088,7 @@
         <v>50.089919145472798</v>
       </c>
     </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>-105</v>
       </c>
@@ -35306,7 +35306,7 @@
         <v>49.658836071740502</v>
       </c>
     </row>
-    <row r="17" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>-100</v>
       </c>
@@ -35524,7 +35524,7 @@
         <v>49.244289008980502</v>
       </c>
     </row>
-    <row r="18" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>-95</v>
       </c>
@@ -35742,7 +35742,7 @@
         <v>48.846698967279302</v>
       </c>
     </row>
-    <row r="19" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>-90</v>
       </c>
@@ -35960,7 +35960,7 @@
         <v>48.466483264210503</v>
       </c>
     </row>
-    <row r="20" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>-85</v>
       </c>
@@ -36178,7 +36178,7 @@
         <v>48.104053883222797</v>
       </c>
     </row>
-    <row r="21" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>-80</v>
       </c>
@@ -36396,7 +36396,7 @@
         <v>47.759815745038203</v>
       </c>
     </row>
-    <row r="22" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>-75</v>
       </c>
@@ -36614,7 +36614,7 @@
         <v>47.434164902525701</v>
       </c>
     </row>
-    <row r="23" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>-70</v>
       </c>
@@ -36832,7 +36832,7 @@
         <v>47.127486671792703</v>
       </c>
     </row>
-    <row r="24" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-65</v>
       </c>
@@ -37050,7 +37050,7 @@
         <v>46.840153714521499</v>
       </c>
     </row>
-    <row r="25" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>-60</v>
       </c>
@@ -37268,7 +37268,7 @@
         <v>46.572524088780099</v>
       </c>
     </row>
-    <row r="26" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>-55</v>
       </c>
@@ -37486,7 +37486,7 @@
         <v>46.3249392876019</v>
       </c>
     </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>-50</v>
       </c>
@@ -37704,7 +37704,7 @@
         <v>46.097722286464403</v>
       </c>
     </row>
-    <row r="28" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>-45</v>
       </c>
@@ -37922,7 +37922,7 @@
         <v>45.891175622335098</v>
       </c>
     </row>
-    <row r="29" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>-40</v>
       </c>
@@ -38140,7 +38140,7 @@
         <v>45.705579528105801</v>
       </c>
     </row>
-    <row r="30" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>-35</v>
       </c>
@@ -38358,7 +38358,7 @@
         <v>45.541190146942803</v>
       </c>
     </row>
-    <row r="31" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>-30</v>
       </c>
@@ -38576,7 +38576,7 @@
         <v>45.398237851264703</v>
       </c>
     </row>
-    <row r="32" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>-25</v>
       </c>
@@ -38794,7 +38794,7 @@
         <v>45.276925690687101</v>
       </c>
     </row>
-    <row r="33" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>-20</v>
       </c>
@@ -39012,7 +39012,7 @@
         <v>45.1774279923061</v>
       </c>
     </row>
-    <row r="34" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>-15</v>
       </c>
@@ -39230,7 +39230,7 @@
         <v>45.099889135118701</v>
       </c>
     </row>
-    <row r="35" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>-10</v>
       </c>
@@ -39448,7 +39448,7 @@
         <v>45.044422518220799</v>
       </c>
     </row>
-    <row r="36" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>-5</v>
       </c>
@@ -39666,7 +39666,7 @@
         <v>45.011109739707599</v>
       </c>
     </row>
-    <row r="37" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
@@ -39884,7 +39884,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -40102,7 +40102,7 @@
         <v>45.011109739707599</v>
       </c>
     </row>
-    <row r="39" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>10</v>
       </c>
@@ -40320,7 +40320,7 @@
         <v>45.044422518220799</v>
       </c>
     </row>
-    <row r="40" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>15</v>
       </c>
@@ -40538,7 +40538,7 @@
         <v>45.099889135118701</v>
       </c>
     </row>
-    <row r="41" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>20</v>
       </c>
@@ -40756,7 +40756,7 @@
         <v>45.1774279923061</v>
       </c>
     </row>
-    <row r="42" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>25</v>
       </c>
@@ -40974,7 +40974,7 @@
         <v>45.276925690687101</v>
       </c>
     </row>
-    <row r="43" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>30</v>
       </c>
@@ -41192,7 +41192,7 @@
         <v>45.398237851264703</v>
       </c>
     </row>
-    <row r="44" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>35</v>
       </c>
@@ -41410,7 +41410,7 @@
         <v>45.541190146942803</v>
       </c>
     </row>
-    <row r="45" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>40</v>
       </c>
@@ -41628,7 +41628,7 @@
         <v>45.705579528105801</v>
       </c>
     </row>
-    <row r="46" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -41846,7 +41846,7 @@
         <v>45.891175622335098</v>
       </c>
     </row>
-    <row r="47" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>50</v>
       </c>
@@ -42064,7 +42064,7 @@
         <v>46.097722286464403</v>
       </c>
     </row>
-    <row r="48" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>55</v>
       </c>
@@ -42282,7 +42282,7 @@
         <v>46.3249392876019</v>
       </c>
     </row>
-    <row r="49" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>60</v>
       </c>
@@ -42500,7 +42500,7 @@
         <v>46.572524088780099</v>
       </c>
     </row>
-    <row r="50" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>65</v>
       </c>
@@ -42718,7 +42718,7 @@
         <v>46.840153714521499</v>
       </c>
     </row>
-    <row r="51" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>70</v>
       </c>
@@ -42936,7 +42936,7 @@
         <v>47.127486671792703</v>
       </c>
     </row>
-    <row r="52" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>75</v>
       </c>
@@ -43154,7 +43154,7 @@
         <v>47.434164902525701</v>
       </c>
     </row>
-    <row r="53" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>80</v>
       </c>
@@ -43372,7 +43372,7 @@
         <v>47.759815745038203</v>
       </c>
     </row>
-    <row r="54" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>85</v>
       </c>
@@ -43590,7 +43590,7 @@
         <v>48.104053883222797</v>
       </c>
     </row>
-    <row r="55" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>90</v>
       </c>
@@ -43808,7 +43808,7 @@
         <v>48.466483264210503</v>
       </c>
     </row>
-    <row r="56" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>95</v>
       </c>
@@ -44026,7 +44026,7 @@
         <v>48.846698967279302</v>
       </c>
     </row>
-    <row r="57" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>100</v>
       </c>
@@ -44244,7 +44244,7 @@
         <v>49.244289008980502</v>
       </c>
     </row>
-    <row r="58" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>105</v>
       </c>
@@ -44462,7 +44462,7 @@
         <v>49.658836071740502</v>
       </c>
     </row>
-    <row r="59" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>110</v>
       </c>
@@ -44680,7 +44680,7 @@
         <v>50.089919145472798</v>
       </c>
     </row>
-    <row r="60" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>115</v>
       </c>
@@ -44898,7 +44898,7 @@
         <v>50.537115073973098</v>
       </c>
     </row>
-    <row r="61" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>120</v>
       </c>
@@ -45116,7 +45116,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>125</v>
       </c>
@@ -45334,7 +45334,7 @@
         <v>51.478150704934997</v>
       </c>
     </row>
-    <row r="63" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>130</v>
       </c>
@@ -45552,7 +45552,7 @@
         <v>51.971145840745102</v>
       </c>
     </row>
-    <row r="64" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>135</v>
       </c>
@@ -45770,7 +45770,7 @@
         <v>52.478567053607698</v>
       </c>
     </row>
-    <row r="65" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>140</v>
       </c>
@@ -45988,7 +45988,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>145</v>
       </c>
@@ -46206,7 +46206,7 @@
         <v>53.535035257296698</v>
       </c>
     </row>
-    <row r="67" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>150</v>
       </c>
@@ -46424,7 +46424,7 @@
         <v>54.083269131959803</v>
       </c>
     </row>
-    <row r="68" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>155</v>
       </c>
@@ -46642,7 +46642,7 @@
         <v>54.644304369257</v>
       </c>
     </row>
-    <row r="69" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>160</v>
       </c>
@@ -46860,7 +46860,7 @@
         <v>55.217750769114097</v>
       </c>
     </row>
-    <row r="70" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>165</v>
       </c>
@@ -47078,7 +47078,7 @@
         <v>55.8032257132148</v>
       </c>
     </row>
-    <row r="71" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>170</v>
       </c>
@@ -47296,7 +47296,7 @@
         <v>56.400354608814297</v>
       </c>
     </row>
-    <row r="72" spans="1:72" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>175</v>
       </c>
